--- a/dtpu_configurations/only_integer8/80mhz/mxu_18x18/timing.xlsx
+++ b/dtpu_configurations/only_integer8/80mhz/mxu_18x18/timing.xlsx
@@ -119,10 +119,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>4.016101360321045</v>
+        <v>0.3288356363773346</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.022086000069975853</v>
+        <v>0.008568479679524899</v>
       </c>
     </row>
   </sheetData>
